--- a/tests/data/cars_additional_spanners.xlsx
+++ b/tests/data/cars_additional_spanners.xlsx
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -131,9 +131,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -629,54 +626,56 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>110</v>
+      </c>
+      <c r="E7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>2.7475</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>0.1803122292025695</v>
+      </c>
+      <c r="H7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C8" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D8" s="16" t="n">
         <v>83.33333333333333</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E8" s="16" t="n">
         <v>18.50225211517056</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F8" s="16" t="n">
         <v>2.886666666666667</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G8" s="16" t="n">
         <v>0.4911551010967242</v>
       </c>
-      <c r="H7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="n">
+      <c r="H8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>2.7475</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>0.1803122292025695</v>
-      </c>
-      <c r="H8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
       <c r="B9" s="15" t="n">
         <v>1</v>
       </c>
@@ -722,21 +721,20 @@
       <c r="H10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="A11" s="17" t="inlineStr">
         <is>
           <t>Data from the infamous mtcars data set.</t>
         </is>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="19" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="19" t="n"/>
+      <c r="B11" s="18" t="n"/>
+      <c r="C11" s="18" t="n"/>
+      <c r="D11" s="18" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="18" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A2:G2"/>

--- a/tests/data/cars_additional_spanners.xlsx
+++ b/tests/data/cars_additional_spanners.xlsx
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -131,6 +131,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -626,56 +629,54 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="E7" s="16" t="n">
+        <v>18.50225211517056</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>2.886666666666667</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>0.4911551010967242</v>
+      </c>
+      <c r="H7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D8" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E8" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F8" s="16" t="n">
         <v>2.7475</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G8" s="16" t="n">
         <v>0.1803122292025695</v>
       </c>
-      <c r="H7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>18.50225211517056</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>2.886666666666667</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>0.4911551010967242</v>
-      </c>
       <c r="H8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="n">
-        <v>6</v>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="15" t="n">
         <v>1</v>
       </c>
@@ -721,20 +722,21 @@
       <c r="H10" s="9" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Data from the infamous mtcars data set.</t>
         </is>
       </c>
-      <c r="B11" s="18" t="n"/>
-      <c r="C11" s="18" t="n"/>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="18" t="n"/>
-      <c r="G11" s="18" t="n"/>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="19" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A2:G2"/>

--- a/tests/data/cars_additional_spanners.xlsx
+++ b/tests/data/cars_additional_spanners.xlsx
@@ -128,12 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,116 +632,135 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="D7" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="E7" s="17" t="n"/>
+      <c r="F7" s="17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G7" s="17" t="n"/>
+      <c r="H7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>21.87235698318771</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>2.3003</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>0.5982073312080948</v>
+      </c>
+      <c r="H8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="n">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>18.50225211517056</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>2.886666666666667</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>0.4911551010967242</v>
-      </c>
-      <c r="H7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="D9" s="17" t="n">
+        <v>131.6666666666667</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>37.52776749732568</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>0.1281600561797629</v>
+      </c>
+      <c r="H9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>115.25</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>9.178779875342908</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>3.38875</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0.1162163929916946</v>
+      </c>
+      <c r="H10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>2.7475</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>0.1803122292025695</v>
-      </c>
-      <c r="H8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>112.6666666666667</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>9.291573243177568</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>3.371666666666667</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>0.1360453355809502</v>
-      </c>
-      <c r="H9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>210</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>49.49747468305833</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>3.505</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <v>0.0919238815542511</v>
-      </c>
-      <c r="H10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="C11" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="n">
+        <v>209.2142857142857</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>50.97688551827051</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>3.999214285714287</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>0.7594047444769265</v>
+      </c>
+      <c r="H11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Data from the infamous mtcars data set.</t>
         </is>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="19" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="19" t="n"/>
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
